--- a/Team-Data/2020-21/1-19-2020-21.xlsx
+++ b/Team-Data/2020-21/1-19-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>108.7</v>
       </c>
       <c r="BN3" t="n">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="BO3" t="n">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="BP3" t="n">
         <v>109</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BR3" t="n">
         <v>1.7</v>
@@ -3073,7 +3073,7 @@
         <v>16.5</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="BW3" t="n">
         <v>0.73</v>
@@ -3091,16 +3091,16 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="CB3" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.21</v>
+        <v>100.29</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.51000000000001</v>
+        <v>83.58</v>
       </c>
       <c r="CE3" t="n">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="CF3" t="n">
         <v>0.506</v>
@@ -3121,7 +3121,7 @@
         <v>29</v>
       </c>
       <c r="CL3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CM3" t="n">
         <v>14</v>
@@ -3145,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="CT3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CU3" t="n">
         <v>23</v>
@@ -3157,7 +3157,7 @@
         <v>16</v>
       </c>
       <c r="CX3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CY3" t="n">
         <v>12</v>
@@ -3203,7 +3203,7 @@
         <v>0.155</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="DM3" t="n">
         <v>0.53</v>
@@ -3212,7 +3212,7 @@
         <v>0.263</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="DP3" t="n">
         <v>0.27</v>
@@ -3251,7 +3251,7 @@
         <v>22</v>
       </c>
       <c r="EB3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="EC3" t="n">
         <v>20</v>
@@ -3648,16 +3648,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="IY3" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="IZ3" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="JA3" t="n">
         <v>22.3</v>
       </c>
       <c r="JB3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="JC3" t="n">
         <v>7.8</v>
@@ -3735,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="KB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="KC3" t="n">
         <v>15</v>
@@ -5899,7 +5899,7 @@
         <v>5</v>
       </c>
       <c r="CL6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CM6" t="n">
         <v>27</v>
@@ -8365,7 +8365,7 @@
         <v>6</v>
       </c>
       <c r="KB8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="KC8" t="n">
         <v>19</v>
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="CS9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CT9" t="n">
         <v>5</v>
@@ -8810,7 +8810,7 @@
         <v>6</v>
       </c>
       <c r="EC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="ED9" t="n">
         <v>10</v>
@@ -9122,7 +9122,7 @@
         <v>27</v>
       </c>
       <c r="HY9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="HZ9" t="n">
         <v>7</v>
@@ -9386,16 +9386,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
         <v>24.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9473,7 +9473,7 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>10</v>
@@ -9537,10 +9537,10 @@
         <v>110.9</v>
       </c>
       <c r="BP10" t="n">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="BR10" t="n">
         <v>-3.9</v>
@@ -9549,7 +9549,7 @@
         <v>0.629</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BU10" t="n">
         <v>17.4</v>
@@ -9558,13 +9558,13 @@
         <v>0.285</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.498</v>
@@ -9576,13 +9576,13 @@
         <v>101</v>
       </c>
       <c r="CC10" t="n">
-        <v>98.97</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="CD10" t="n">
-        <v>82.47</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="CE10" t="n">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="CF10" t="n">
         <v>0.461</v>
@@ -9624,7 +9624,7 @@
         <v>7</v>
       </c>
       <c r="CS10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CT10" t="n">
         <v>19</v>
@@ -9682,7 +9682,7 @@
         <v>0.244</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="DL10" t="n">
         <v>0.285</v>
@@ -9697,7 +9697,7 @@
         <v>0.172</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.262</v>
+        <v>0.26</v>
       </c>
       <c r="DQ10" t="n">
         <v>15</v>
@@ -9736,7 +9736,7 @@
         <v>2</v>
       </c>
       <c r="EC10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10000,13 +10000,13 @@
         <v>49.2</v>
       </c>
       <c r="HI10" t="n">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="HJ10" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10048,7 +10048,7 @@
         <v>30</v>
       </c>
       <c r="HY10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="HZ10" t="n">
         <v>10</v>
@@ -11585,7 +11585,7 @@
         <v>16</v>
       </c>
       <c r="EB12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EC12" t="n">
         <v>30</v>
@@ -13331,7 +13331,7 @@
         <v>8</v>
       </c>
       <c r="CT14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CU14" t="n">
         <v>14</v>
@@ -13437,7 +13437,7 @@
         <v>17</v>
       </c>
       <c r="EB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EC14" t="n">
         <v>8</v>
@@ -16693,7 +16693,7 @@
         <v>5</v>
       </c>
       <c r="JZ17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="KA17" t="n">
         <v>18</v>
@@ -19813,7 +19813,7 @@
         <v>20</v>
       </c>
       <c r="CT21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CU21" t="n">
         <v>20</v>
@@ -20736,7 +20736,7 @@
         <v>30</v>
       </c>
       <c r="CS22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CT22" t="n">
         <v>28</v>
@@ -20848,7 +20848,7 @@
         <v>29</v>
       </c>
       <c r="EC22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="ED22" t="n">
         <v>10</v>
@@ -21160,7 +21160,7 @@
         <v>6</v>
       </c>
       <c r="HY22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="HZ22" t="n">
         <v>25</v>
@@ -21677,7 +21677,7 @@
         <v>30</v>
       </c>
       <c r="CX23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CY23" t="n">
         <v>27</v>
@@ -25215,7 +25215,7 @@
         <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
@@ -27197,7 +27197,7 @@
         <v>22</v>
       </c>
       <c r="CL29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CM29" t="n">
         <v>16</v>

--- a/Team-Data/2020-21/1-19-2020-21.xlsx
+++ b/Team-Data/2020-21/1-19-2020-21.xlsx
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z4" t="n">
         <v>18.5</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
         <v>24.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2321,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>9</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
         <v>41.6</v>
       </c>
       <c r="J16" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.452</v>
@@ -3323,13 +3323,13 @@
         <v>0.765</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
         <v>34.8</v>
       </c>
       <c r="T16" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U16" t="n">
         <v>27.2</v>
@@ -3401,7 +3401,7 @@
         <v>13</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>16</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>15.9</v>
       </c>
       <c r="M18" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.403</v>
@@ -3705,7 +3705,7 @@
         <v>9.1</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y18" t="n">
         <v>5.1</v>
@@ -3753,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="AN18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>11</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
         <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-19-2020-21</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
